--- a/Tomato/Plan.xlsx
+++ b/Tomato/Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gabi\VS-Projects\Tomato\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gabi\VS-Projects\Tomato\Tomato\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Initiate project</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,23 +550,23 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -598,15 +598,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -614,17 +614,22 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Tomato/Plan.xlsx
+++ b/Tomato/Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gabi\VS-Projects\Tomato\Tomato\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\C++\Tomato\Tomato\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Initiate project</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Maths</t>
+  </si>
+  <si>
+    <t>Renderer</t>
   </si>
 </sst>
 </file>
@@ -423,19 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -468,7 +471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -476,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -484,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -492,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -500,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -508,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -516,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -524,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -532,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -540,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -548,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -556,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -564,72 +567,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Tomato/Plan.xlsx
+++ b/Tomato/Plan.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tomato/Plan.xlsx
+++ b/Tomato/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Initiate project</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Renderer</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Texture</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +597,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,8 +649,27 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
       <c r="B25" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
